--- a/BadWolf_Games_Gantt_Chart.xlsx
+++ b/BadWolf_Games_Gantt_Chart.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CSCI447[Game Design]\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CSCI447[Game Design]\Soul-Forge\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7365" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7365" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Manual Gantt Chart" sheetId="5" r:id="rId1"/>
-    <sheet name="Gantt Chart - Manual End Date" sheetId="4" r:id="rId2"/>
-    <sheet name="Gantt Chart - Manual Duration" sheetId="3" r:id="rId3"/>
+    <sheet name="Gantt Chart - Manual Duration" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>Start Date</t>
   </si>
@@ -139,22 +138,13 @@
     <t>Create Collision Between Enemy/Hero/Level</t>
   </si>
   <si>
-    <t>Add Basic Powerups and Upgrades</t>
-  </si>
-  <si>
     <t>Add Second Basic Level</t>
-  </si>
-  <si>
-    <t>Initial Playtests</t>
   </si>
   <si>
     <t>Add Initial Sprites and Artwork</t>
   </si>
   <si>
     <t>Menu and HUD</t>
-  </si>
-  <si>
-    <t>Enemy AI</t>
   </si>
   <si>
     <t>Finish Levels</t>
@@ -169,19 +159,40 @@
     <t>Implement Basic Hero and Weapons</t>
   </si>
   <si>
-    <t>Polish up Final Artwork</t>
-  </si>
-  <si>
     <t>Final Debugging and Playtesting</t>
   </si>
   <si>
     <t>Soul-Forge Completion</t>
   </si>
+  <si>
+    <t>Extra Time for Polishing up Game</t>
+  </si>
+  <si>
+    <t>ALPHA</t>
+  </si>
+  <si>
+    <t>BETA DELIVERY</t>
+  </si>
+  <si>
+    <t>Create Complete Level</t>
+  </si>
+  <si>
+    <t>Add most Weapons</t>
+  </si>
+  <si>
+    <t>Create tilesets and Sprites for items</t>
+  </si>
+  <si>
+    <t>Basic Enemy AI</t>
+  </si>
+  <si>
+    <t>Advanced Enemy AI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -260,7 +271,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,8 +295,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -330,35 +347,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -375,7 +366,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -384,11 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -415,22 +402,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -455,6 +432,30 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -1495,1318 +1496,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Gantt Chart - Manual End Date'!$B$5:$B$29</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>Task One</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Task Two</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Task Three</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Task Four</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Task Five</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Task Six</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Task Seven</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Task Eight</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Task Nine</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Task Ten</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Task Eleven</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Task Twelve</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Task Thirteen</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Task Fourteen</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Task Fifteen</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Task Sixteen</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Task Seventeen</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Gantt Chart - Manual End Date'!$C$5:$C$29</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>42576</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42578</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42578</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42580</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42583</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42583</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42585</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42587</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42585</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42588</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42589</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42592</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42596</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42597</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42598</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42599</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CA32-4F44-91D3-B7E604C6A90E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Days Complete</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="72C9DE"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="72C9DE"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="528E77"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="528E77"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="528E77"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000A-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="B86FD7"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000C-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="B86FD7"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000E-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="B86FD7"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000010-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C14B3A"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000012-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C14B3A"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000014-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="72C9DE"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000016-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="72C9DE"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000018-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="72C9DE"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001A-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="528E77"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001C-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="528E77"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001E-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="B86FD7"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000020-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="16"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="B86FD7"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000022-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Gantt Chart - Manual End Date'!$B$5:$B$29</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>Task One</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Task Two</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Task Three</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Task Four</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Task Five</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Task Six</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Task Seven</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Task Eight</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Task Nine</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Task Ten</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Task Eleven</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Task Twelve</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Task Thirteen</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Task Fourteen</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Task Fifteen</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Task Sixteen</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Task Seventeen</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Gantt Chart - Manual End Date'!$F$5:$F$29</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.8999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.89999999999999991</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.8499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.65</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000023-CA32-4F44-91D3-B7E604C6A90E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Days Remain</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="BBE6EF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="BBE6EF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="AFD3C5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000029-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="AFD3C5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="AFD3C5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002D-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="D5A8E7"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002F-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="D5A8E7"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000031-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="D5A8E7"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000033-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="E3B3AA"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000035-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="E3B3AA"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000037-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="BBE6EF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000039-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="BBE6EF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003B-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="BBE6EF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003D-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="AFD3C5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003F-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="AFD3C5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000041-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="D5A8E7"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000043-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="16"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="D5A8E7"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000045-CA32-4F44-91D3-B7E604C6A90E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Gantt Chart - Manual End Date'!$B$5:$B$29</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>Task One</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Task Two</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Task Three</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Task Four</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Task Five</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Task Six</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Task Seven</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Task Eight</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Task Nine</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Task Ten</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Task Eleven</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Task Twelve</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Task Thirteen</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Task Fourteen</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Task Fifteen</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Task Sixteen</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Task Seventeen</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Gantt Chart - Manual End Date'!$G$5:$G$29</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.1000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.35</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000046-CA32-4F44-91D3-B7E604C6A90E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="-2092066368"/>
-        <c:axId val="-2092321328"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-2092066368"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2092321328"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2092321328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="42576"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="t"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2092066368"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="5"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="0"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="accent1"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Start Date</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Gantt Chart - Manual Duration'!$B$5:$B$30</c15:sqref>
+                    <c15:sqref>'Gantt Chart - Manual Duration'!$B$5:$B$25</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Gantt Chart - Manual Duration'!$B$5:$B$21</c:f>
+              <c:f>('Gantt Chart - Manual Duration'!$B$5:$B$17,'Gantt Chart - Manual Duration'!$B$19:$B$21,'Gantt Chart - Manual Duration'!$B$23:$B$25)</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Create Soul-Forge Git Repository</c:v>
                 </c:pt>
@@ -2826,36 +1525,42 @@
                   <c:v>Create Collision Between Enemy/Hero/Level</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Add Basic Powerups and Upgrades</c:v>
+                  <c:v>Create Complete Level</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Add most Weapons</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Create tilesets and Sprites for items</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Basic Enemy AI</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Advanced Enemy AI</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Add Second Basic Level</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>Initial Playtests</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>Menu and HUD</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>Enemy AI</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>Finish Levels</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>Finish Enemies (AI, Art, Collision)</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>Finish Hero Mechanics</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>Polish up Final Artwork</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
+                  <c:v>Extra Time for Polishing up Game</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>Final Debugging and Playtesting</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>Soul-Forge Completion</c:v>
                 </c:pt>
               </c:strCache>
@@ -2866,14 +1571,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Gantt Chart - Manual Duration'!$C$5:$C$30</c15:sqref>
+                    <c15:sqref>'Gantt Chart - Manual Duration'!$C$5:$C$25</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Gantt Chart - Manual Duration'!$C$5:$C$21</c:f>
+              <c:f>('Gantt Chart - Manual Duration'!$C$5:$C$17,'Gantt Chart - Manual Duration'!$C$19:$C$21,'Gantt Chart - Manual Duration'!$C$23:$C$25)</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>43133</c:v>
                 </c:pt>
@@ -2893,37 +1598,43 @@
                   <c:v>43140</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43140</c:v>
+                  <c:v>43141</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43140</c:v>
+                  <c:v>43141</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43140</c:v>
+                  <c:v>43141</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43140</c:v>
+                  <c:v>43141</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43147</c:v>
+                  <c:v>43157</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43147</c:v>
+                  <c:v>43157</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43147</c:v>
+                  <c:v>43157</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43147</c:v>
+                  <c:v>43182</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43147</c:v>
+                  <c:v>43182</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43147</c:v>
+                  <c:v>43182</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43151</c:v>
+                  <c:v>43201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43201</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3212,31 +1923,12 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001C-395A-4983-9D96-FAA2424A47BE}"/>
+                <c16:uniqueId val="{0000001E-395A-4983-9D96-FAA2424A47BE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="528E77"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001E-395A-4983-9D96-FAA2424A47BE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3255,7 +1947,7 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="16"/>
+            <c:idx val="15"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3278,13 +1970,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Gantt Chart - Manual Duration'!$B$5:$B$30</c15:sqref>
+                    <c15:sqref>'Gantt Chart - Manual Duration'!$B$5:$B$25</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Gantt Chart - Manual Duration'!$B$5:$B$21</c:f>
+              <c:f>('Gantt Chart - Manual Duration'!$B$5:$B$17,'Gantt Chart - Manual Duration'!$B$19:$B$21,'Gantt Chart - Manual Duration'!$B$23:$B$25)</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Create Soul-Forge Git Repository</c:v>
                 </c:pt>
@@ -3304,36 +1996,42 @@
                   <c:v>Create Collision Between Enemy/Hero/Level</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Add Basic Powerups and Upgrades</c:v>
+                  <c:v>Create Complete Level</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Add most Weapons</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Create tilesets and Sprites for items</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Basic Enemy AI</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Advanced Enemy AI</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Add Second Basic Level</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>Initial Playtests</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>Menu and HUD</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>Enemy AI</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>Finish Levels</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>Finish Enemies (AI, Art, Collision)</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>Finish Hero Mechanics</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>Polish up Final Artwork</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
+                  <c:v>Extra Time for Polishing up Game</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>Final Debugging and Playtesting</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>Soul-Forge Completion</c:v>
                 </c:pt>
               </c:strCache>
@@ -3344,43 +2042,43 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Gantt Chart - Manual Duration'!$F$5:$F$30</c15:sqref>
+                    <c15:sqref>'Gantt Chart - Manual Duration'!$F$5:$F$25</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Gantt Chart - Manual Duration'!$F$5:$F$21</c:f>
+              <c:f>('Gantt Chart - Manual Duration'!$F$5:$F$17,'Gantt Chart - Manual Duration'!$F$19:$F$21,'Gantt Chart - Manual Duration'!$F$23:$F$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.70000000000000007</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.05</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -3401,12 +2099,36 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.42812500000000003</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions>
+                <c15:categoryFilterException>
+                  <c15:sqref>'Gantt Chart - Manual Duration'!$F$18</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:srgbClr val="528E77"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+              </c15:categoryFilterExceptions>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000023-395A-4983-9D96-FAA2424A47BE}"/>
             </c:ext>
@@ -3690,31 +2412,12 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003F-395A-4983-9D96-FAA2424A47BE}"/>
+                <c16:uniqueId val="{00000041-395A-4983-9D96-FAA2424A47BE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="AFD3C5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000041-395A-4983-9D96-FAA2424A47BE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3733,7 +2436,7 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="16"/>
+            <c:idx val="15"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3759,13 +2462,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Gantt Chart - Manual Duration'!$B$5:$B$30</c15:sqref>
+                    <c15:sqref>'Gantt Chart - Manual Duration'!$B$5:$B$25</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Gantt Chart - Manual Duration'!$B$5:$B$21</c:f>
+              <c:f>('Gantt Chart - Manual Duration'!$B$5:$B$17,'Gantt Chart - Manual Duration'!$B$19:$B$21,'Gantt Chart - Manual Duration'!$B$23:$B$25)</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Create Soul-Forge Git Repository</c:v>
                 </c:pt>
@@ -3785,36 +2488,42 @@
                   <c:v>Create Collision Between Enemy/Hero/Level</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Add Basic Powerups and Upgrades</c:v>
+                  <c:v>Create Complete Level</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Add most Weapons</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Create tilesets and Sprites for items</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Basic Enemy AI</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Advanced Enemy AI</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Add Second Basic Level</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>Initial Playtests</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>Menu and HUD</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>Enemy AI</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>Finish Levels</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>Finish Enemies (AI, Art, Collision)</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>Finish Hero Mechanics</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>Polish up Final Artwork</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
+                  <c:v>Extra Time for Polishing up Game</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>Final Debugging and Playtesting</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>Soul-Forge Completion</c:v>
                 </c:pt>
               </c:strCache>
@@ -3825,69 +2534,93 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Gantt Chart - Manual Duration'!$G$5:$G$30</c15:sqref>
+                    <c15:sqref>'Gantt Chart - Manual Duration'!$G$5:$G$25</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Gantt Chart - Manual Duration'!$G$5:$G$21</c:f>
+              <c:f>('Gantt Chart - Manual Duration'!$G$5:$G$17,'Gantt Chart - Manual Duration'!$G$19:$G$21,'Gantt Chart - Manual Duration'!$G$23:$G$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.95</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.5718750000000004</c:v>
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions>
+                <c15:categoryFilterException>
+                  <c15:sqref>'Gantt Chart - Manual Duration'!$G$18</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:srgbClr val="AFD3C5"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+              </c15:categoryFilterExceptions>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000046-395A-4983-9D96-FAA2424A47BE}"/>
             </c:ext>
@@ -4139,46 +2872,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -4685,511 +3378,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5840,160 +4028,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>29880</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>1041400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>203199</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>15464</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="203199" y="12700"/>
-          <a:ext cx="18735265" cy="1485900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>927100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15138400" y="584200"/>
-          <a:ext cx="3289300" cy="723900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>253999</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1056788</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>274768</xdr:rowOff>
+      <xdr:colOff>1101611</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6335,13 +4379,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:T33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
@@ -6362,25 +4406,25 @@
   <sheetData>
     <row r="1" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:20" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
     </row>
     <row r="3" spans="2:20" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
@@ -6404,39 +4448,39 @@
       <c r="T3" s="2"/>
     </row>
     <row r="4" spans="2:20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="10">
         <f>C5</f>
         <v>42576</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
     </row>
     <row r="5" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="20" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3">
@@ -6445,14 +4489,14 @@
       <c r="D5" s="3">
         <v>42581</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="18">
         <f t="shared" ref="E5:E29" si="0">IF(ISBLANK(C5),"", (D5-C5))</f>
         <v>5</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3">
@@ -6461,14 +4505,14 @@
       <c r="D6" s="3">
         <v>42583</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="20" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3">
@@ -6477,14 +4521,14 @@
       <c r="D7" s="3">
         <v>42586</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="3">
@@ -6493,14 +4537,14 @@
       <c r="D8" s="3">
         <v>42588</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3">
@@ -6509,14 +4553,14 @@
       <c r="D9" s="3">
         <v>42591</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="3">
@@ -6525,14 +4569,14 @@
       <c r="D10" s="3">
         <v>42587</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="3">
@@ -6541,14 +4585,14 @@
       <c r="D11" s="3">
         <v>42592</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="3">
@@ -6557,14 +4601,14 @@
       <c r="D12" s="3">
         <v>42594</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="3">
@@ -6573,14 +4617,14 @@
       <c r="D13" s="3">
         <v>42591</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="3">
@@ -6589,14 +4633,14 @@
       <c r="D14" s="3">
         <v>42592</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="3">
@@ -6605,14 +4649,14 @@
       <c r="D15" s="3">
         <v>42595</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="3">
@@ -6621,14 +4665,14 @@
       <c r="D16" s="3">
         <v>42598</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="3">
@@ -6637,14 +4681,14 @@
       <c r="D17" s="3">
         <v>42601</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="3">
@@ -6653,14 +4697,14 @@
       <c r="D18" s="3">
         <v>42605</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="3">
@@ -6669,14 +4713,14 @@
       <c r="D19" s="3">
         <v>42608</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="3">
@@ -6685,14 +4729,14 @@
       <c r="D20" s="3">
         <v>42610</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="3">
@@ -6701,122 +4745,122 @@
       <c r="D21" s="3">
         <v>42611</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="22" t="str">
+      <c r="E22" s="18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="26"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="22" t="str">
+      <c r="E23" s="18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="26"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="22" t="str">
+      <c r="E24" s="18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="26"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="22" t="str">
+      <c r="E25" s="18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="26"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="22" t="str">
+      <c r="E26" s="18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="26"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="22" t="str">
+      <c r="E27" s="18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="26"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="22" t="str">
+      <c r="E28" s="18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="26"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="22" t="str">
+      <c r="E29" s="18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="32" t="s">
+      <c r="H32" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="34" t="s">
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
     </row>
     <row r="33" spans="8:16" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H33" s="33" t="s">
+      <c r="H33" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33" t="s">
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6834,12 +4878,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:V53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B1:V56"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6850,6 +4894,7 @@
     <col min="9" max="9" width="3.5" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="12" max="12" width="2" customWidth="1"/>
+    <col min="13" max="13" width="10.875" customWidth="1"/>
     <col min="18" max="18" width="17.625" customWidth="1"/>
     <col min="19" max="19" width="15.625" customWidth="1"/>
     <col min="20" max="20" width="20.125" customWidth="1"/>
@@ -6858,25 +4903,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:22" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
+    <row r="2" spans="2:22" ht="87" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="30"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
@@ -6905,724 +4950,627 @@
       <c r="V3" s="2"/>
     </row>
     <row r="4" spans="2:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="10">
         <f>C5</f>
-        <v>42576</v>
-      </c>
-      <c r="M4" s="37" t="s">
+        <v>43133</v>
+      </c>
+      <c r="M4" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
     </row>
     <row r="5" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="s">
-        <v>2</v>
+      <c r="B5" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="C5" s="3">
-        <v>42576</v>
-      </c>
-      <c r="D5" s="3">
-        <v>42581</v>
-      </c>
-      <c r="E5" s="23">
-        <f t="shared" ref="E5:E29" si="0">IF(D5="","",SUM(F5:G5))</f>
-        <v>5</v>
-      </c>
-      <c r="F5" s="8">
-        <f t="shared" ref="F5:F29" si="1">IF(((D5)=""),"",(H5)*(D5-C5))</f>
-        <v>2.5</v>
-      </c>
-      <c r="G5" s="24">
-        <f t="shared" ref="G5:G29" si="2">IF(F5="","",(D5-C5)-F5)</f>
-        <v>2.5</v>
+        <v>43133</v>
+      </c>
+      <c r="D5" s="16">
+        <f t="shared" ref="D5:D21" si="0">IF(ISBLANK(E5),"",E5+C5)</f>
+        <v>43134</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" ref="F5:F21" si="1">IF(((D5)=""),"",(H5)*(D5-C5))</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="17">
+        <f t="shared" ref="G5:G21" si="2">IF(F5="","",(D5-C5)-F5)</f>
+        <v>0</v>
       </c>
       <c r="H5" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="28" t="s">
-        <v>3</v>
+      <c r="B6" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="C6" s="3">
-        <v>42578</v>
-      </c>
-      <c r="D6" s="3">
-        <v>42583</v>
-      </c>
-      <c r="E6" s="23">
+        <v>43134</v>
+      </c>
+      <c r="D6" s="16">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F6" s="8">
+        <v>43141</v>
+      </c>
+      <c r="E6" s="6">
+        <v>7</v>
+      </c>
+      <c r="F6" s="17">
         <f t="shared" si="1"/>
-        <v>3.75</v>
-      </c>
-      <c r="G6" s="24">
-        <f t="shared" si="2"/>
-        <v>1.25</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3">
-        <v>42578</v>
-      </c>
-      <c r="D7" s="3">
-        <v>42586</v>
-      </c>
-      <c r="E7" s="23">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F7" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G7" s="24">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3">
-        <v>42580</v>
-      </c>
-      <c r="D8" s="3">
-        <v>42588</v>
-      </c>
-      <c r="E8" s="23">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F8" s="8">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="G8" s="24">
+        <v>7</v>
+      </c>
+      <c r="G6" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43134</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="shared" si="0"/>
+        <v>43141</v>
+      </c>
+      <c r="E7" s="6">
+        <v>7</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43134</v>
+      </c>
+      <c r="D8" s="16">
+        <f t="shared" si="0"/>
+        <v>43141</v>
+      </c>
+      <c r="E8" s="6">
+        <v>7</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
-        <v>6</v>
+    <row r="9" spans="2:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="C9" s="3">
-        <v>42583</v>
-      </c>
-      <c r="D9" s="3">
-        <v>42591</v>
-      </c>
-      <c r="E9" s="23">
+        <v>43134</v>
+      </c>
+      <c r="D9" s="16">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F9" s="8">
+        <v>43141</v>
+      </c>
+      <c r="E9" s="6">
+        <v>7</v>
+      </c>
+      <c r="F9" s="17">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G9" s="24">
+        <v>7</v>
+      </c>
+      <c r="G9" s="17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43140</v>
+      </c>
+      <c r="D10" s="16">
+        <f t="shared" si="0"/>
+        <v>43147</v>
+      </c>
+      <c r="E10" s="6">
         <v>7</v>
       </c>
-      <c r="C10" s="3">
-        <v>42583</v>
-      </c>
-      <c r="D10" s="3">
-        <v>42587</v>
-      </c>
-      <c r="E10" s="23">
+      <c r="F10" s="17">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G10" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="37">
+        <v>43141</v>
+      </c>
+      <c r="D11" s="38">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F10" s="8">
+        <v>43157</v>
+      </c>
+      <c r="E11" s="39">
+        <v>16</v>
+      </c>
+      <c r="F11" s="40">
         <f t="shared" si="1"/>
-        <v>1.4</v>
-      </c>
-      <c r="G10" s="24">
+        <v>16</v>
+      </c>
+      <c r="G11" s="40">
         <f t="shared" si="2"/>
-        <v>2.6</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3">
-        <v>42585</v>
-      </c>
-      <c r="D11" s="3">
-        <v>42592</v>
-      </c>
-      <c r="E11" s="23">
+        <v>0</v>
+      </c>
+      <c r="H11" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="37">
+        <v>43141</v>
+      </c>
+      <c r="D12" s="38">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F11" s="8">
+        <v>43157</v>
+      </c>
+      <c r="E12" s="39">
+        <v>16</v>
+      </c>
+      <c r="F12" s="40">
         <f t="shared" si="1"/>
-        <v>1.75</v>
-      </c>
-      <c r="G11" s="24">
+        <v>16</v>
+      </c>
+      <c r="G12" s="40">
         <f t="shared" si="2"/>
-        <v>5.25</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3">
-        <v>42587</v>
-      </c>
-      <c r="D12" s="3">
-        <v>42594</v>
-      </c>
-      <c r="E12" s="23">
+        <v>0</v>
+      </c>
+      <c r="H12" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="37">
+        <v>43141</v>
+      </c>
+      <c r="D13" s="38">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F12" s="8">
+        <v>43157</v>
+      </c>
+      <c r="E13" s="39">
+        <v>16</v>
+      </c>
+      <c r="F13" s="40">
         <f t="shared" si="1"/>
-        <v>4.8999999999999995</v>
-      </c>
-      <c r="G12" s="24">
+        <v>16</v>
+      </c>
+      <c r="G13" s="40">
         <f t="shared" si="2"/>
-        <v>2.1000000000000005</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3">
-        <v>42585</v>
-      </c>
-      <c r="D13" s="3">
-        <v>42591</v>
-      </c>
-      <c r="E13" s="23">
+        <v>0</v>
+      </c>
+      <c r="H13" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="37">
+        <v>43141</v>
+      </c>
+      <c r="D14" s="38">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F13" s="8">
+        <v>43157</v>
+      </c>
+      <c r="E14" s="39">
+        <v>16</v>
+      </c>
+      <c r="F14" s="40">
         <f t="shared" si="1"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="G13" s="24">
+        <v>16</v>
+      </c>
+      <c r="G14" s="40">
         <f t="shared" si="2"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3">
-        <v>42588</v>
-      </c>
-      <c r="D14" s="3">
-        <v>42592</v>
-      </c>
-      <c r="E14" s="23">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" si="1"/>
-        <v>2.4</v>
-      </c>
-      <c r="G14" s="24">
-        <f t="shared" si="2"/>
-        <v>1.6</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0.6</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="41">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="3">
+        <v>43157</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" ref="D15" si="3">IF(ISBLANK(E15),"",E15+C15)</f>
+        <v>43182</v>
+      </c>
+      <c r="E15" s="6">
+        <v>25</v>
+      </c>
+      <c r="F15" s="17">
+        <f t="shared" ref="F15" si="4">IF(((D15)=""),"",(H15)*(D15-C15))</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
+        <f t="shared" ref="G15" si="5">IF(F15="","",(D15-C15)-F15)</f>
+        <v>25</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3">
+        <v>43157</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" ref="D16" si="6">IF(ISBLANK(E16),"",E16+C16)</f>
+        <v>43182</v>
+      </c>
+      <c r="E16" s="6">
+        <v>25</v>
+      </c>
+      <c r="F16" s="17">
+        <f t="shared" ref="F16" si="7">IF(((D16)=""),"",(H16)*(D16-C16))</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
+        <f t="shared" ref="G16" si="8">IF(F16="","",(D16-C16)-F16)</f>
+        <v>25</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="3">
+        <v>43157</v>
+      </c>
+      <c r="D17" s="16">
+        <f>IF(ISBLANK(E17),"",E17+C17)</f>
+        <v>43182</v>
+      </c>
+      <c r="E17" s="6">
+        <v>25</v>
+      </c>
+      <c r="F17" s="17">
+        <f>IF(((D17)=""),"",(H17)*(D17-C17))</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
+        <f>IF(F17="","",(D17-C17)-F17)</f>
+        <v>25</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="35"/>
+    </row>
+    <row r="19" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3">
+        <v>43182</v>
+      </c>
+      <c r="D19" s="16">
+        <f>IF(ISBLANK(E19),"",E19+C19)</f>
+        <v>43201</v>
+      </c>
+      <c r="E19" s="6">
+        <v>19</v>
+      </c>
+      <c r="F19" s="17">
+        <f>IF(((D19)=""),"",(H19)*(D19-C19))</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="17">
+        <f>IF(F19="","",(D19-C19)-F19)</f>
+        <v>19</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3">
+        <v>43182</v>
+      </c>
+      <c r="D20" s="16">
+        <f>IF(ISBLANK(E20),"",E20+C20)</f>
+        <v>43201</v>
+      </c>
+      <c r="E20" s="6">
+        <v>19</v>
+      </c>
+      <c r="F20" s="17">
+        <f>IF(((D20)=""),"",(H20)*(D20-C20))</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="17">
+        <f>IF(F20="","",(D20-C20)-F20)</f>
+        <v>19</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3">
+        <v>43182</v>
+      </c>
+      <c r="D21" s="16">
+        <f>IF(ISBLANK(E21),"",E21+C21)</f>
+        <v>43201</v>
+      </c>
+      <c r="E21" s="6">
+        <v>19</v>
+      </c>
+      <c r="F21" s="17">
+        <f>IF(((D21)=""),"",(H21)*(D21-C21))</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="17">
+        <f>IF(F21="","",(D21-C21)-F21)</f>
+        <v>19</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="35"/>
+    </row>
+    <row r="23" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="3">
+        <v>43201</v>
+      </c>
+      <c r="D23" s="16">
+        <f>IF(ISBLANK(E23),"",E23+C23)</f>
+        <v>43213</v>
+      </c>
+      <c r="E23" s="6">
         <v>12</v>
       </c>
-      <c r="C15" s="3">
-        <v>42589</v>
-      </c>
-      <c r="D15" s="3">
-        <v>42595</v>
-      </c>
-      <c r="E15" s="23">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" si="1"/>
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G15" s="24">
-        <f t="shared" si="2"/>
-        <v>2.0999999999999996</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3">
-        <v>42592</v>
-      </c>
-      <c r="D16" s="3">
-        <v>42598</v>
-      </c>
-      <c r="E16" s="23">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="G16" s="24">
-        <f t="shared" si="2"/>
+      <c r="F23" s="17">
+        <f>IF(((D23)=""),"",(H23)*(D23-C23))</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="17">
+        <f>IF(F23="","",(D23-C23)-F23)</f>
+        <v>12</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="3">
+        <v>43201</v>
+      </c>
+      <c r="D24" s="16">
+        <f>IF(ISBLANK(E24),"",E24+C24)</f>
+        <v>43213</v>
+      </c>
+      <c r="E24" s="6">
+        <v>12</v>
+      </c>
+      <c r="F24" s="17">
+        <f>IF(((D24)=""),"",(H24)*(D24-C24))</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="17">
+        <f>IF(F24="","",(D24-C24)-F24)</f>
+        <v>12</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="3">
+        <v>43201</v>
+      </c>
+      <c r="D25" s="16">
+        <f>IF(ISBLANK(E25),"",E25+C25)</f>
+        <v>43213</v>
+      </c>
+      <c r="E25" s="6">
+        <v>12</v>
+      </c>
+      <c r="F25" s="17">
+        <f>IF(((D25)=""),"",(H25)*(D25-C25))</f>
+        <v>7.5</v>
+      </c>
+      <c r="G25" s="17">
+        <f>IF(F25="","",(D25-C25)-F25)</f>
         <v>4.5</v>
       </c>
-      <c r="H16" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3">
-        <v>42596</v>
-      </c>
-      <c r="D17" s="3">
-        <v>42601</v>
-      </c>
-      <c r="E17" s="23">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="G17" s="24">
-        <f t="shared" si="2"/>
-        <v>3.5</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3">
-        <v>42597</v>
-      </c>
-      <c r="D18" s="3">
-        <v>42605</v>
-      </c>
-      <c r="E18" s="23">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G18" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="3">
-        <v>42598</v>
-      </c>
-      <c r="D19" s="3">
-        <v>42608</v>
-      </c>
-      <c r="E19" s="23">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G19" s="24">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3">
-        <v>42599</v>
-      </c>
-      <c r="D20" s="3">
-        <v>42610</v>
-      </c>
-      <c r="E20" s="23">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" si="1"/>
-        <v>3.8499999999999996</v>
-      </c>
-      <c r="G20" s="24">
-        <f t="shared" si="2"/>
-        <v>7.15</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="10">
-        <v>42600</v>
-      </c>
-      <c r="D21" s="3">
-        <v>42611</v>
-      </c>
-      <c r="E21" s="23">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="1"/>
-        <v>1.65</v>
-      </c>
-      <c r="G21" s="24">
-        <f t="shared" si="2"/>
-        <v>9.35</v>
-      </c>
-      <c r="H21" s="12">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="30"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F22" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G22" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="28"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F23" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G23" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F24" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G24" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="28"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F25" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G25" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="28"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F26" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G26" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="28"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F27" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G27" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="28"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F28" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G28" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="28"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F29" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G29" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="15"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="4"/>
-      <c r="J31" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="K31" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-    </row>
-    <row r="32" spans="2:18" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="15"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="K32" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-    </row>
-    <row r="33" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="15"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="15"/>
+      <c r="H25" s="23">
+        <f>SUM(H5:H24)/16</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="11"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="15"/>
+      <c r="H34" s="4"/>
+      <c r="J34" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+    </row>
+    <row r="35" spans="2:18" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="11"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
+      <c r="K35" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+    </row>
+    <row r="36" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="11"/>
+      <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="15"/>
+    <row r="37" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="11"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -7630,8 +5578,8 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="15"/>
+    <row r="38" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="11"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -7639,17 +5587,17 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="15"/>
-      <c r="C39" s="2"/>
+    <row r="39" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="11"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="15"/>
+    <row r="40" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="11"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -7657,8 +5605,8 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="15"/>
+    <row r="41" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="11"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -7666,8 +5614,8 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="15"/>
+    <row r="42" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="11"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -7675,8 +5623,8 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="15"/>
+    <row r="43" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="11"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -7684,8 +5632,8 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="15"/>
+    <row r="44" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="11"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -7693,8 +5641,8 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="15"/>
+    <row r="45" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="11"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -7702,8 +5650,8 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="15"/>
+    <row r="46" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="11"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -7711,8 +5659,8 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="15"/>
+    <row r="47" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="11"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -7720,8 +5668,8 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="15"/>
+    <row r="48" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="11"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -7730,7 +5678,7 @@
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="15"/>
+      <c r="B49" s="11"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -7739,7 +5687,7 @@
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="15"/>
+      <c r="B50" s="11"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -7748,7 +5696,7 @@
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="15"/>
+      <c r="B51" s="11"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -7757,7 +5705,7 @@
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="15"/>
+      <c r="B52" s="11"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -7766,7 +5714,7 @@
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="15"/>
+      <c r="B53" s="11"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -7774,894 +5722,8 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="K32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="K31:O31"/>
-    <mergeCell ref="P31:R31"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:V54"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="40.875" customWidth="1"/>
-    <col min="3" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="12" max="12" width="2" customWidth="1"/>
-    <col min="13" max="13" width="10.875" customWidth="1"/>
-    <col min="18" max="18" width="17.625" customWidth="1"/>
-    <col min="19" max="19" width="15.625" customWidth="1"/>
-    <col min="20" max="20" width="20.125" customWidth="1"/>
-    <col min="21" max="21" width="12.5" customWidth="1"/>
-    <col min="22" max="22" width="11.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:22" ht="87" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="38"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-    </row>
-    <row r="3" spans="2:22" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="2:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="14">
-        <f>C5</f>
-        <v>43133</v>
-      </c>
-      <c r="M4" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-    </row>
-    <row r="5" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3">
-        <v>43133</v>
-      </c>
-      <c r="D5" s="20">
-        <f t="shared" ref="D5:D21" si="0">IF(ISBLANK(E5),"",E5+C5)</f>
-        <v>43134</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="21">
-        <f t="shared" ref="F5:F21" si="1">IF(((D5)=""),"",(H5)*(D5-C5))</f>
-        <v>1</v>
-      </c>
-      <c r="G5" s="21">
-        <f t="shared" ref="G5:G21" si="2">IF(F5="","",(D5-C5)-F5)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="3">
-        <v>43134</v>
-      </c>
-      <c r="D6" s="20">
-        <f t="shared" si="0"/>
-        <v>43141</v>
-      </c>
-      <c r="E6" s="6">
-        <v>7</v>
-      </c>
-      <c r="F6" s="21">
-        <f t="shared" si="1"/>
-        <v>0.84</v>
-      </c>
-      <c r="G6" s="21">
-        <f t="shared" si="2"/>
-        <v>6.16</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="3">
-        <v>43134</v>
-      </c>
-      <c r="D7" s="20">
-        <f t="shared" si="0"/>
-        <v>43141</v>
-      </c>
-      <c r="E7" s="6">
-        <v>7</v>
-      </c>
-      <c r="F7" s="21">
-        <f t="shared" si="1"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="G7" s="21">
-        <f t="shared" si="2"/>
-        <v>6.3</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="3">
-        <v>43134</v>
-      </c>
-      <c r="D8" s="20">
-        <f t="shared" si="0"/>
-        <v>43141</v>
-      </c>
-      <c r="E8" s="6">
-        <v>7</v>
-      </c>
-      <c r="F8" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="21">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="3">
-        <v>43134</v>
-      </c>
-      <c r="D9" s="20">
-        <f t="shared" si="0"/>
-        <v>43141</v>
-      </c>
-      <c r="E9" s="6">
-        <v>7</v>
-      </c>
-      <c r="F9" s="21">
-        <f t="shared" si="1"/>
-        <v>1.05</v>
-      </c>
-      <c r="G9" s="21">
-        <f t="shared" si="2"/>
-        <v>5.95</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="3">
-        <v>43140</v>
-      </c>
-      <c r="D10" s="20">
-        <f t="shared" si="0"/>
-        <v>43147</v>
-      </c>
-      <c r="E10" s="6">
-        <v>7</v>
-      </c>
-      <c r="F10" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="21">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="3">
-        <v>43140</v>
-      </c>
-      <c r="D11" s="20">
-        <f t="shared" si="0"/>
-        <v>43147</v>
-      </c>
-      <c r="E11" s="6">
-        <v>7</v>
-      </c>
-      <c r="F11" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="21">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="3">
-        <v>43140</v>
-      </c>
-      <c r="D12" s="20">
-        <f t="shared" si="0"/>
-        <v>43147</v>
-      </c>
-      <c r="E12" s="6">
-        <v>7</v>
-      </c>
-      <c r="F12" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="21">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="3">
-        <v>43140</v>
-      </c>
-      <c r="D13" s="20">
-        <f t="shared" si="0"/>
-        <v>43147</v>
-      </c>
-      <c r="E13" s="6">
-        <v>7</v>
-      </c>
-      <c r="F13" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="21">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="3">
-        <v>43140</v>
-      </c>
-      <c r="D14" s="20">
-        <f t="shared" si="0"/>
-        <v>43147</v>
-      </c>
-      <c r="E14" s="6">
-        <v>7</v>
-      </c>
-      <c r="F14" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="21">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="3">
-        <v>43147</v>
-      </c>
-      <c r="D15" s="20">
-        <f t="shared" si="0"/>
-        <v>43154</v>
-      </c>
-      <c r="E15" s="6">
-        <v>7</v>
-      </c>
-      <c r="F15" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="21">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="3">
-        <v>43147</v>
-      </c>
-      <c r="D16" s="20">
-        <f t="shared" si="0"/>
-        <v>43154</v>
-      </c>
-      <c r="E16" s="6">
-        <v>7</v>
-      </c>
-      <c r="F16" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="21">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="3">
-        <v>43147</v>
-      </c>
-      <c r="D17" s="20">
-        <f t="shared" si="0"/>
-        <v>43154</v>
-      </c>
-      <c r="E17" s="6">
-        <v>7</v>
-      </c>
-      <c r="F17" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="21">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="3">
-        <v>43147</v>
-      </c>
-      <c r="D18" s="20">
-        <f t="shared" si="0"/>
-        <v>43154</v>
-      </c>
-      <c r="E18" s="6">
-        <v>7</v>
-      </c>
-      <c r="F18" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="21">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="3">
-        <v>43147</v>
-      </c>
-      <c r="D19" s="20">
-        <f t="shared" si="0"/>
-        <v>43154</v>
-      </c>
-      <c r="E19" s="6">
-        <v>7</v>
-      </c>
-      <c r="F19" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="21">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="3">
-        <v>43147</v>
-      </c>
-      <c r="D20" s="20">
-        <f t="shared" si="0"/>
-        <v>43154</v>
-      </c>
-      <c r="E20" s="6">
-        <v>7</v>
-      </c>
-      <c r="F20" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="21">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="3">
-        <v>43151</v>
-      </c>
-      <c r="D21" s="20">
-        <f t="shared" si="0"/>
-        <v>43156</v>
-      </c>
-      <c r="E21" s="6">
-        <v>5</v>
-      </c>
-      <c r="F21" s="21">
-        <f t="shared" si="1"/>
-        <v>0.42812500000000003</v>
-      </c>
-      <c r="G21" s="21">
-        <f t="shared" si="2"/>
-        <v>4.5718750000000004</v>
-      </c>
-      <c r="H21" s="31">
-        <f>SUM(H5:H20)/16</f>
-        <v>8.5625000000000007E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="29"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="30"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="28"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="28"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="28"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="28"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="28"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="28"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="15"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="15"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="4"/>
-      <c r="J32" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="K32" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-    </row>
-    <row r="33" spans="2:18" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="15"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="K33" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-    </row>
-    <row r="34" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="15"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="15"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="15"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="15"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="15"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="15"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="15"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="15"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="15"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="15"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="15"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="15"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="15"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="15"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="15"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="15"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="15"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="15"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="15"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-    </row>
     <row r="54" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="15"/>
+      <c r="B54" s="11"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -8669,14 +5731,32 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
+    <row r="55" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="11"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="11"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="M4:S4"/>
-    <mergeCell ref="K32:O32"/>
-    <mergeCell ref="K33:O33"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="K35:O35"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P35:R35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/BadWolf_Games_Gantt_Chart.xlsx
+++ b/BadWolf_Games_Gantt_Chart.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CSCI447[Game Design]\Soul-Forge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CSCI477[Game Design]\Soul-Forge\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7365" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Manual Gantt Chart" sheetId="5" r:id="rId1"/>
@@ -138,9 +138,6 @@
     <t>Create Collision Between Enemy/Hero/Level</t>
   </si>
   <si>
-    <t>Add Second Basic Level</t>
-  </si>
-  <si>
     <t>Add Initial Sprites and Artwork</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>Advanced Enemy AI</t>
+  </si>
+  <si>
+    <t>Add Second Level</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -411,27 +411,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -455,7 +434,40 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -1540,7 +1552,7 @@
                   <c:v>Advanced Enemy AI</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Add Second Basic Level</c:v>
+                  <c:v>Add Second Level</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Menu and HUD</c:v>
@@ -2011,7 +2023,7 @@
                   <c:v>Advanced Enemy AI</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Add Second Basic Level</c:v>
+                  <c:v>Add Second Level</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Menu and HUD</c:v>
@@ -2081,22 +2093,22 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>13.299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>14.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -2105,7 +2117,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.5</c:v>
+                  <c:v>9.9375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2503,7 +2515,7 @@
                   <c:v>Advanced Enemy AI</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Add Second Basic Level</c:v>
+                  <c:v>Add Second Level</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Menu and HUD</c:v>
@@ -2573,22 +2585,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19</c:v>
+                  <c:v>5.7000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19</c:v>
+                  <c:v>4.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>12</c:v>
@@ -2597,7 +2609,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.5</c:v>
+                  <c:v>2.0625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4468,16 +4480,16 @@
         <f>C5</f>
         <v>42576</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
@@ -4833,34 +4845,34 @@
       <c r="G32" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="24" t="s">
+      <c r="H32" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="26" t="s">
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
     </row>
     <row r="33" spans="8:16" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H33" s="25" t="s">
+      <c r="H33" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25" t="s">
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4883,7 +4895,7 @@
   <dimension ref="B1:V56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4904,24 +4916,24 @@
   <sheetData>
     <row r="1" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:22" ht="87" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="30"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
@@ -4978,15 +4990,15 @@
         <f>C5</f>
         <v>43133</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="M4" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
     </row>
     <row r="5" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
@@ -4996,18 +5008,18 @@
         <v>43133</v>
       </c>
       <c r="D5" s="16">
-        <f t="shared" ref="D5:D21" si="0">IF(ISBLANK(E5),"",E5+C5)</f>
+        <f t="shared" ref="D5:D14" si="0">IF(ISBLANK(E5),"",E5+C5)</f>
         <v>43134</v>
       </c>
       <c r="E5" s="8">
         <v>1</v>
       </c>
       <c r="F5" s="17">
-        <f t="shared" ref="F5:F21" si="1">IF(((D5)=""),"",(H5)*(D5-C5))</f>
+        <f t="shared" ref="F5:F14" si="1">IF(((D5)=""),"",(H5)*(D5-C5))</f>
         <v>1</v>
       </c>
       <c r="G5" s="17">
-        <f t="shared" ref="G5:G21" si="2">IF(F5="","",(D5-C5)-F5)</f>
+        <f t="shared" ref="G5:G14" si="2">IF(F5="","",(D5-C5)-F5)</f>
         <v>0</v>
       </c>
       <c r="H5" s="7">
@@ -5069,7 +5081,7 @@
     </row>
     <row r="8" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3">
         <v>43134</v>
@@ -5095,7 +5107,7 @@
     </row>
     <row r="9" spans="2:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3">
         <v>43134</v>
@@ -5146,202 +5158,202 @@
       </c>
     </row>
     <row r="11" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="37">
+      <c r="B11" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="43">
         <v>43141</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="44">
         <f t="shared" si="0"/>
         <v>43157</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="45">
         <v>16</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="46">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="37">
+      <c r="B12" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="43">
         <v>43141</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="44">
         <f t="shared" si="0"/>
         <v>43157</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="45">
         <v>16</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="46">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="37">
+      <c r="B13" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="43">
         <v>43141</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="44">
         <f t="shared" si="0"/>
         <v>43157</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="45">
         <v>16</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="46">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="37">
+      <c r="B14" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="43">
         <v>43141</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="44">
         <f t="shared" si="0"/>
         <v>43157</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="45">
         <v>16</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="46">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="B15" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="30">
         <v>43157</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="31">
         <f t="shared" ref="D15" si="3">IF(ISBLANK(E15),"",E15+C15)</f>
         <v>43182</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="32">
         <v>25</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="33">
         <f t="shared" ref="F15" si="4">IF(((D15)=""),"",(H15)*(D15-C15))</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="17">
+        <v>10</v>
+      </c>
+      <c r="G15" s="33">
         <f t="shared" ref="G15" si="5">IF(F15="","",(D15-C15)-F15)</f>
-        <v>25</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="H15" s="34">
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="B16" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="30">
         <v>43157</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="31">
         <f t="shared" ref="D16" si="6">IF(ISBLANK(E16),"",E16+C16)</f>
         <v>43182</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="32">
         <v>25</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="33">
         <f t="shared" ref="F16" si="7">IF(((D16)=""),"",(H16)*(D16-C16))</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="17">
+        <v>22.5</v>
+      </c>
+      <c r="G16" s="33">
         <f t="shared" ref="G16" si="8">IF(F16="","",(D16-C16)-F16)</f>
-        <v>25</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
+        <v>2.5</v>
+      </c>
+      <c r="H16" s="34">
+        <v>0.9</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B17" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="30">
         <v>43157</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="31">
         <f>IF(ISBLANK(E17),"",E17+C17)</f>
         <v>43182</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="32">
         <v>25</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="33">
         <f>IF(((D17)=""),"",(H17)*(D17-C17))</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="17">
+        <v>12.5</v>
+      </c>
+      <c r="G17" s="33">
         <f>IF(F17="","",(D17-C17)-F17)</f>
-        <v>25</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
+        <v>12.5</v>
+      </c>
+      <c r="H17" s="34">
+        <v>0.5</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
     </row>
     <row r="19" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3">
         <v>43182</v>
@@ -5366,71 +5378,71 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="B20" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="30">
         <v>43182</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="31">
         <f>IF(ISBLANK(E20),"",E20+C20)</f>
         <v>43201</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="32">
         <v>19</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="33">
         <f>IF(((D20)=""),"",(H20)*(D20-C20))</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="17">
+        <v>13.299999999999999</v>
+      </c>
+      <c r="G20" s="33">
         <f>IF(F20="","",(D20-C20)-F20)</f>
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
+        <v>5.7000000000000011</v>
+      </c>
+      <c r="H20" s="34">
+        <v>0.7</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="B21" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="30">
         <v>43182</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="31">
         <f>IF(ISBLANK(E21),"",E21+C21)</f>
         <v>43201</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="32">
         <v>19</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="33">
         <f>IF(((D21)=""),"",(H21)*(D21-C21))</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="17">
+        <v>14.25</v>
+      </c>
+      <c r="G21" s="33">
         <f>IF(F21="","",(D21-C21)-F21)</f>
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
+        <v>4.75</v>
+      </c>
+      <c r="H21" s="34">
+        <v>0.75</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="35"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
     </row>
     <row r="23" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="3">
         <v>43201</v>
@@ -5456,7 +5468,7 @@
     </row>
     <row r="24" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="3">
         <v>43201</v>
@@ -5482,7 +5494,7 @@
     </row>
     <row r="25" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="3">
         <v>43201</v>
@@ -5496,15 +5508,15 @@
       </c>
       <c r="F25" s="17">
         <f>IF(((D25)=""),"",(H25)*(D25-C25))</f>
-        <v>7.5</v>
+        <v>9.9375</v>
       </c>
       <c r="G25" s="17">
         <f>IF(F25="","",(D25-C25)-F25)</f>
-        <v>4.5</v>
+        <v>2.0625</v>
       </c>
       <c r="H25" s="23">
         <f>SUM(H5:H24)/16</f>
-        <v>0.625</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5526,18 +5538,18 @@
       <c r="J34" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K34" s="24" t="s">
+      <c r="K34" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="26" t="s">
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
     </row>
     <row r="35" spans="2:18" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
@@ -5547,18 +5559,18 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="K35" s="25" t="s">
+      <c r="K35" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25" t="s">
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
     </row>
     <row r="36" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="11"/>

--- a/BadWolf_Games_Gantt_Chart.xlsx
+++ b/BadWolf_Games_Gantt_Chart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Manual Gantt Chart" sheetId="5" r:id="rId1"/>
     <sheet name="Gantt Chart - Manual Duration" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>Start Date</t>
   </si>
@@ -188,12 +188,30 @@
   <si>
     <t>Add Second Level</t>
   </si>
+  <si>
+    <t>Can the enemies damage the player?</t>
+  </si>
+  <si>
+    <t>Can the player damage enemies?</t>
+  </si>
+  <si>
+    <t>Do the bosses damage enemies and visa versa?</t>
+  </si>
+  <si>
+    <t>Is movement fluid?</t>
+  </si>
+  <si>
+    <t>Crafting combinations work?</t>
+  </si>
+  <si>
+    <t>Weapon Transition are intuitive?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -269,6 +287,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -366,7 +390,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -434,6 +458,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -455,19 +492,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -2093,22 +2120,22 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>22.5</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.5</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.299999999999999</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14.25</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -2117,7 +2144,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.9375</c:v>
+                  <c:v>11.700000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2585,22 +2612,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.5</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.7000000000000011</c:v>
+                  <c:v>1.8999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.75</c:v>
+                  <c:v>1.8999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>12</c:v>
@@ -2609,7 +2636,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0625</c:v>
+                  <c:v>0.29999999999999893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4391,7 +4418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4480,16 +4507,16 @@
         <f>C5</f>
         <v>42576</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
@@ -4845,34 +4872,34 @@
       <c r="G32" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="35" t="s">
+      <c r="H32" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="37" t="s">
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
     </row>
     <row r="33" spans="8:16" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H33" s="36" t="s">
+      <c r="H33" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36" t="s">
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4890,12 +4917,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:V56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4916,24 +4943,24 @@
   <sheetData>
     <row r="1" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:22" ht="87" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
@@ -4990,15 +5017,15 @@
         <f>C5</f>
         <v>43133</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
     </row>
     <row r="5" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
@@ -5158,106 +5185,106 @@
       </c>
     </row>
     <row r="11" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="36">
         <v>43141</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="37">
         <f t="shared" si="0"/>
         <v>43157</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="38">
         <v>16</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="39">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="36">
         <v>43141</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="37">
         <f t="shared" si="0"/>
         <v>43157</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="38">
         <v>16</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="39">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="36">
         <v>43141</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="37">
         <f t="shared" si="0"/>
         <v>43157</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="38">
         <v>16</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="39">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="36">
         <v>43141</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="37">
         <f t="shared" si="0"/>
         <v>43157</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="38">
         <v>16</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="39">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="40">
         <v>1</v>
       </c>
     </row>
@@ -5277,40 +5304,40 @@
       </c>
       <c r="F15" s="33">
         <f t="shared" ref="F15" si="4">IF(((D15)=""),"",(H15)*(D15-C15))</f>
-        <v>10</v>
+        <v>22.5</v>
       </c>
       <c r="G15" s="33">
         <f t="shared" ref="G15" si="5">IF(F15="","",(D15-C15)-F15)</f>
-        <v>15</v>
+        <v>2.5</v>
       </c>
       <c r="H15" s="34">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="16" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="36">
         <v>43157</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="37">
         <f t="shared" ref="D16" si="6">IF(ISBLANK(E16),"",E16+C16)</f>
         <v>43182</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="38">
         <v>25</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="39">
         <f t="shared" ref="F16" si="7">IF(((D16)=""),"",(H16)*(D16-C16))</f>
-        <v>22.5</v>
-      </c>
-      <c r="G16" s="33">
+        <v>25</v>
+      </c>
+      <c r="G16" s="39">
         <f t="shared" ref="G16" si="8">IF(F16="","",(D16-C16)-F16)</f>
-        <v>2.5</v>
-      </c>
-      <c r="H16" s="34">
-        <v>0.9</v>
+        <v>0</v>
+      </c>
+      <c r="H16" s="40">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5329,14 +5356,14 @@
       </c>
       <c r="F17" s="33">
         <f>IF(((D17)=""),"",(H17)*(D17-C17))</f>
-        <v>12.5</v>
+        <v>22.5</v>
       </c>
       <c r="G17" s="33">
         <f>IF(F17="","",(D17-C17)-F17)</f>
-        <v>12.5</v>
+        <v>2.5</v>
       </c>
       <c r="H17" s="34">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="J17" s="1"/>
     </row>
@@ -5367,14 +5394,14 @@
       </c>
       <c r="F19" s="17">
         <f>IF(((D19)=""),"",(H19)*(D19-C19))</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G19" s="17">
         <f>IF(F19="","",(D19-C19)-F19)</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5393,14 +5420,14 @@
       </c>
       <c r="F20" s="33">
         <f>IF(((D20)=""),"",(H20)*(D20-C20))</f>
-        <v>13.299999999999999</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="G20" s="33">
         <f>IF(F20="","",(D20-C20)-F20)</f>
-        <v>5.7000000000000011</v>
+        <v>1.8999999999999986</v>
       </c>
       <c r="H20" s="34">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5419,14 +5446,14 @@
       </c>
       <c r="F21" s="33">
         <f>IF(((D21)=""),"",(H21)*(D21-C21))</f>
-        <v>14.25</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="G21" s="33">
         <f>IF(F21="","",(D21-C21)-F21)</f>
-        <v>4.75</v>
+        <v>1.8999999999999986</v>
       </c>
       <c r="H21" s="34">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5508,24 +5535,48 @@
       </c>
       <c r="F25" s="17">
         <f>IF(((D25)=""),"",(H25)*(D25-C25))</f>
-        <v>9.9375</v>
+        <v>11.700000000000001</v>
       </c>
       <c r="G25" s="17">
         <f>IF(F25="","",(D25-C25)-F25)</f>
-        <v>2.0625</v>
+        <v>0.29999999999999893</v>
       </c>
       <c r="H25" s="23">
         <f>SUM(H5:H24)/16</f>
-        <v>0.828125</v>
+        <v>0.97500000000000009</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="49" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="33" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11"/>
@@ -5538,18 +5589,18 @@
       <c r="J34" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K34" s="35" t="s">
+      <c r="K34" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="37" t="s">
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
     </row>
     <row r="35" spans="2:18" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
@@ -5559,18 +5610,18 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="K35" s="36" t="s">
+      <c r="K35" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36" t="s">
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
     </row>
     <row r="36" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="11"/>
@@ -5771,7 +5822,7 @@
     <mergeCell ref="P35:R35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>